--- a/PBNT_12_V_timing_output_load_2p_post_tsmc3eff_meas.xlsx
+++ b/PBNT_12_V_timing_output_load_2p_post_tsmc3eff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="56">
   <si>
     <t>Process</t>
   </si>
@@ -52,13 +52,13 @@
     <t>choose</t>
   </si>
   <si>
-    <t>tr_pad (pS)</t>
-  </si>
-  <si>
-    <t>tf_pad (pS)</t>
-  </si>
-  <si>
-    <t>dcd_pad (%)</t>
+    <t>tr_PAD (pS)</t>
+  </si>
+  <si>
+    <t>tf_PAD (pS)</t>
+  </si>
+  <si>
+    <t>dcd_PAD (%)</t>
   </si>
   <si>
     <t>tr_C (pS)</t>
@@ -635,14 +635,14 @@
       <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="M2">
-        <v>750000000000</v>
-      </c>
-      <c r="N2">
-        <v>750000000000</v>
-      </c>
-      <c r="O2">
-        <v>50</v>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>29</v>
@@ -741,14 +741,14 @@
       <c r="K4" t="s">
         <v>46</v>
       </c>
-      <c r="M4">
-        <v>750000000000</v>
-      </c>
-      <c r="N4">
-        <v>750000000000</v>
-      </c>
-      <c r="O4">
-        <v>50</v>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>29</v>
@@ -820,14 +820,14 @@
       <c r="L6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="1">
-        <v>750000000000</v>
-      </c>
-      <c r="N6" s="1">
-        <v>750000000000</v>
-      </c>
-      <c r="O6" s="1">
-        <v>50</v>
+      <c r="M6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>29</v>
@@ -843,14 +843,14 @@
       <c r="L7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="1">
-        <v>750000000000</v>
-      </c>
-      <c r="N7" s="1">
-        <v>750000000000</v>
-      </c>
-      <c r="O7" s="1">
-        <v>50</v>
+      <c r="M7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>29</v>
@@ -886,14 +886,14 @@
       <c r="L12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="1">
-        <v>750000000000</v>
-      </c>
-      <c r="N12" s="1">
-        <v>750000000000</v>
-      </c>
-      <c r="O12" s="1">
-        <v>50</v>
+      <c r="M12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>29</v>
@@ -909,14 +909,14 @@
       <c r="L13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
+      <c r="M13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>29</v>
@@ -932,14 +932,14 @@
       <c r="L14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
+      <c r="M14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>29</v>

--- a/PBNT_12_V_timing_output_load_2p_post_tsmc3eff_meas.xlsx
+++ b/PBNT_12_V_timing_output_load_2p_post_tsmc3eff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
   <si>
     <t>Process</t>
   </si>
@@ -52,22 +52,22 @@
     <t>choose</t>
   </si>
   <si>
-    <t>tr_PAD (pS)</t>
-  </si>
-  <si>
-    <t>tf_PAD (pS)</t>
-  </si>
-  <si>
-    <t>dcd_PAD (%)</t>
-  </si>
-  <si>
-    <t>tr_C (pS)</t>
-  </si>
-  <si>
-    <t>tf_C (pS)</t>
-  </si>
-  <si>
-    <t>dcd_C (%)</t>
+    <t>tr_pad (pS)</t>
+  </si>
+  <si>
+    <t>tf_pad (pS)</t>
+  </si>
+  <si>
+    <t>dcd_pad (%)</t>
+  </si>
+  <si>
+    <t>tr_c (pS)</t>
+  </si>
+  <si>
+    <t>tf_c (pS)</t>
+  </si>
+  <si>
+    <t>dcd_c (%)</t>
   </si>
   <si>
     <t>tsmc3eff (0)</t>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>typical</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>tsmc3eff (1)</t>
@@ -188,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,26 +201,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000 "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -238,10 +222,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,129 +618,129 @@
       <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
+      <c r="M2">
+        <v>750</v>
+      </c>
+      <c r="N2">
+        <v>750</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>41.1905</v>
+      </c>
+      <c r="Q2">
+        <v>47.4783</v>
+      </c>
+      <c r="R2">
+        <v>46.2567</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>29</v>
+      <c r="M3">
+        <v>750</v>
+      </c>
+      <c r="N3">
+        <v>750</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>36.7285</v>
+      </c>
+      <c r="Q3">
+        <v>40.3075</v>
+      </c>
+      <c r="R3">
+        <v>47.0826</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>29</v>
+      <c r="M4">
+        <v>750</v>
+      </c>
+      <c r="N4">
+        <v>750</v>
+      </c>
+      <c r="O4">
+        <v>50</v>
+      </c>
+      <c r="P4">
+        <v>53.2968</v>
+      </c>
+      <c r="Q4">
+        <v>70.2833</v>
+      </c>
+      <c r="R4">
+        <v>44.237</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1">
@@ -818,137 +801,137 @@
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1">
       <c r="L6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="M6" s="1">
+        <v>750</v>
+      </c>
+      <c r="N6" s="1">
+        <v>750</v>
+      </c>
+      <c r="O6" s="1">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1">
+        <v>36.7285</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>40.3075</v>
+      </c>
+      <c r="R6" s="1">
+        <v>44.237</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1">
       <c r="L7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="M7" s="1">
+        <v>750</v>
+      </c>
+      <c r="N7" s="1">
+        <v>750</v>
+      </c>
+      <c r="O7" s="1">
+        <v>50</v>
+      </c>
+      <c r="P7" s="1">
+        <v>53.2968</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>70.2833</v>
+      </c>
+      <c r="R7" s="1">
+        <v>47.0826</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1">
       <c r="L8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1">
       <c r="L9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1">
       <c r="L10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1">
       <c r="L11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1">
       <c r="L12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="M12" s="1">
+        <v>750</v>
+      </c>
+      <c r="N12" s="1">
+        <v>750</v>
+      </c>
+      <c r="O12" s="1">
+        <v>50</v>
+      </c>
+      <c r="P12" s="1">
+        <v>43.7386</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>52.68969999999999</v>
+      </c>
+      <c r="R12" s="1">
+        <v>45.85876666666667</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1">
       <c r="L13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>6.999845304481144</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>12.78035377392452</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1.195302763133907</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1">
       <c r="L14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>16.00381654758301</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>24.25588639511046</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.606486938085791</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1"/>
